--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="登录接口" sheetId="1" r:id="rId1"/>
+    <sheet name="搜索商品接口" sheetId="2" r:id="rId2"/>
+    <sheet name="商品详情页接口" sheetId="3" r:id="rId3"/>
+    <sheet name="添加购物车接口" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>用例编号</t>
   </si>
@@ -61,6 +62,36 @@
   </si>
   <si>
     <t>{"principal":"","credentials":"lemon123456","appType":3,"loginType":1}</t>
+  </si>
+  <si>
+    <t>搜索商品名-衣柜</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/search/searchProdPage</t>
+  </si>
+  <si>
+    <t>prodName=衣柜</t>
+  </si>
+  <si>
+    <t>搜索商品-特殊字符%</t>
+  </si>
+  <si>
+    <t>prodName=%</t>
+  </si>
+  <si>
+    <t>添加单个商品到购物车</t>
+  </si>
+  <si>
+    <t>http://mall.lemonban.com:8107/p/shopCart/changeItem</t>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json","Authorization":"bearera26892b8-d740-43da-b12b-92a1c0668e5f"}</t>
+  </si>
+  <si>
+    <t>{"basketId":0,"count":1,"prodId":"94","shopId":1,"skuId":426}</t>
   </si>
 </sst>
 </file>
@@ -84,6 +115,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,14 +152,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,12 +257,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -534,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,31 +583,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,28 +628,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -621,66 +658,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1079,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1046,22 +1092,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1075,7 +1121,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1095,7 +1141,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1115,7 +1161,7 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
@@ -1135,7 +1181,7 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
@@ -1161,14 +1207,80 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.7685185185185" customWidth="1"/>
+    <col min="4" max="4" width="58.3796296296296" customWidth="1"/>
+    <col min="5" max="5" width="9.80555555555556" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/search/searchProdPage" tooltip="http://mall.lemonban.com:8107/search/searchProdPage"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8107/search/searchProdPage" tooltip="http://mall.lemonban.com:8107/search/searchProdPage"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1190,4 +1302,70 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="23.3703703703704" customWidth="1"/>
+    <col min="4" max="4" width="16.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="41.1481481481481" customWidth="1"/>
+    <col min="6" max="6" width="38.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="57.6" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/p/shopCart/changeItem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>用例编号</t>
   </si>
@@ -37,6 +37,9 @@
     <t>请求参数</t>
   </si>
   <si>
+    <t>响应断言</t>
+  </si>
+  <si>
     <t>登录正向用例</t>
   </si>
   <si>
@@ -52,12 +55,18 @@
     <t>{"principal":"lemon_auto","credentials":"lemon123456","appType":3,"loginType":0}</t>
   </si>
   <si>
+    <t>{"statuscode":200,"nickName":"lemon_auto"}</t>
+  </si>
+  <si>
     <t>登录失败-密码为空</t>
   </si>
   <si>
     <t>{"principal":"lemon_auto","credentials":"","appType":3,"loginType":1}</t>
   </si>
   <si>
+    <t>{"statuscode":400,"bodyString":"验证码有误或已过期"}</t>
+  </si>
+  <si>
     <t>登录失败-账号为空</t>
   </si>
   <si>
@@ -76,6 +85,9 @@
     <t>prodName=衣柜</t>
   </si>
   <si>
+    <t>{"statuscode":200}</t>
+  </si>
+  <si>
     <t>搜索商品-特殊字符%</t>
   </si>
   <si>
@@ -92,6 +104,9 @@
   </si>
   <si>
     <t>{"basketId":0,"count":1,"prodId":"94","shopId":1,"skuId":426}</t>
+  </si>
+  <si>
+    <t>{"statuscode":401,"bodyString":"Added successfully"}</t>
   </si>
 </sst>
 </file>
@@ -99,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -130,6 +145,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,6 +159,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,14 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,14 +235,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,70 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +481,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,15 +519,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,148 +583,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -720,66 +735,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1077,21 +1092,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="18.3703703703704" customWidth="1"/>
-    <col min="4" max="4" width="37.6944444444444" customWidth="1"/>
-    <col min="5" max="5" width="39.3148148148148" customWidth="1"/>
-    <col min="6" max="6" width="69.9907407407407" customWidth="1"/>
+    <col min="1" max="1" width="3.33653846153846" customWidth="1"/>
+    <col min="2" max="2" width="13.4134615384615" customWidth="1"/>
+    <col min="3" max="3" width="5.88461538461539" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="23.8653846153846" customWidth="1"/>
+    <col min="6" max="6" width="32.2596153846154" customWidth="1"/>
+    <col min="7" max="7" width="67.9230769230769" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1110,85 +1128,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="83" customHeight="1" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="34" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" ht="53" customHeight="1" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1206,6 @@
     <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/login"/>
     <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8107/login" tooltip="http://mall.lemonban.com:8107/login"/>
     <hyperlink ref="D4" r:id="rId1" display="http://mall.lemonban.com:8107/login" tooltip="http://mall.lemonban.com:8107/login"/>
-    <hyperlink ref="D6" r:id="rId1" display="http://mall.lemonban.com:8107/login" tooltip="http://mall.lemonban.com:8107/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1207,22 +1216,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.7685185185185" customWidth="1"/>
-    <col min="4" max="4" width="58.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="9.80555555555556" customWidth="1"/>
+    <col min="2" max="2" width="19.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="32.1153846153846" customWidth="1"/>
+    <col min="5" max="5" width="9.80769230769231" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="24.1057692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1241,39 +1251,48 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1315,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1307,21 +1326,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="23.3703703703704" customWidth="1"/>
-    <col min="4" max="4" width="16.8518518518519" customWidth="1"/>
-    <col min="5" max="5" width="41.1481481481481" customWidth="1"/>
-    <col min="6" max="6" width="38.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="15.7115384615385" customWidth="1"/>
+    <col min="4" max="4" width="16.8557692307692" customWidth="1"/>
+    <col min="5" max="5" width="19.9134615384615" customWidth="1"/>
+    <col min="6" max="6" width="23.3365384615385" customWidth="1"/>
+    <col min="7" max="7" width="45.4711538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,25 +1360,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="57.6" spans="1:6">
+    <row r="2" ht="101" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11720" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="11780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>用例编号</t>
   </si>
@@ -85,13 +85,16 @@
     <t>prodName=衣柜</t>
   </si>
   <si>
+    <t>{"statuscode":200,"records.size()":1}</t>
+  </si>
+  <si>
+    <t>搜索商品-特殊字符%</t>
+  </si>
+  <si>
+    <t>prodName=%</t>
+  </si>
+  <si>
     <t>{"statuscode":200}</t>
-  </si>
-  <si>
-    <t>搜索商品-特殊字符%</t>
-  </si>
-  <si>
-    <t>prodName=%</t>
   </si>
   <si>
     <t>添加单个商品到购物车</t>
@@ -115,9 +118,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,17 +162,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,6 +200,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -197,6 +222,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -206,36 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,21 +274,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -293,13 +296,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,163 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +541,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -567,140 +581,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,16 +712,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,8 +1221,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1292,7 +1295,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1331,7 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1369,22 +1372,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11780" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>{"principal":"lemon_auto","credentials":"","appType":3,"loginType":1}</t>
   </si>
   <si>
-    <t>{"statuscode":400,"bodyString":"验证码有误或已过期"}</t>
+    <t>{"statuscode":400,"bodyString":"Incorrect account or password"}</t>
   </si>
   <si>
     <t>登录失败-账号为空</t>
@@ -109,7 +109,7 @@
     <t>{"basketId":0,"count":1,"prodId":"94","shopId":1,"skuId":426}</t>
   </si>
   <si>
-    <t>{"statuscode":401,"bodyString":"Added successfully"}</t>
+    <t>{"statuscode":200,"bodyString":"Added successfully"}</t>
   </si>
 </sst>
 </file>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,20 +148,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,15 +191,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,29 +215,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -222,14 +222,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -241,37 +272,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -290,13 +290,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,169 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,20 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +523,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,17 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,17 +562,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +586,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,66 +738,66 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1097,19 +1097,19 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.33653846153846" customWidth="1"/>
-    <col min="2" max="2" width="13.4134615384615" customWidth="1"/>
-    <col min="3" max="3" width="5.88461538461539" customWidth="1"/>
+    <col min="1" max="1" width="3.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="23.8653846153846" customWidth="1"/>
-    <col min="6" max="6" width="32.2596153846154" customWidth="1"/>
-    <col min="7" max="7" width="67.9230769230769" customWidth="1"/>
+    <col min="5" max="5" width="23.8611111111111" customWidth="1"/>
+    <col min="6" max="6" width="32.2592592592593" customWidth="1"/>
+    <col min="7" max="7" width="67.9259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1158,7 +1158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:7">
+    <row r="3" ht="43.2" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1221,18 +1221,18 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="19.7692307692308" customWidth="1"/>
-    <col min="4" max="4" width="32.1153846153846" customWidth="1"/>
-    <col min="5" max="5" width="9.80769230769231" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="24.1057692307692" customWidth="1"/>
+    <col min="2" max="2" width="19.7685185185185" customWidth="1"/>
+    <col min="4" max="4" width="32.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="9.80555555555556" customWidth="1"/>
+    <col min="6" max="6" width="16.9259259259259" customWidth="1"/>
+    <col min="7" max="7" width="42.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1318,7 +1318,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1332,16 +1332,16 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.7115384615385" customWidth="1"/>
-    <col min="4" max="4" width="16.8557692307692" customWidth="1"/>
-    <col min="5" max="5" width="19.9134615384615" customWidth="1"/>
-    <col min="6" max="6" width="23.3365384615385" customWidth="1"/>
-    <col min="7" max="7" width="45.4711538461538" customWidth="1"/>
+    <col min="2" max="2" width="15.712962962963" customWidth="1"/>
+    <col min="4" max="4" width="16.8518518518519" customWidth="1"/>
+    <col min="5" max="5" width="19.9166666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="45.4722222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1367,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="101" spans="1:7">
+    <row r="2" ht="86.4" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
     <sheet name="搜索商品接口" sheetId="2" r:id="rId2"/>
     <sheet name="商品详情页接口" sheetId="3" r:id="rId3"/>
     <sheet name="添加购物车接口" sheetId="4" r:id="rId4"/>
+    <sheet name="下单支付业务" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>用例编号</t>
   </si>
@@ -46,7 +47,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>http://mall.lemonban.com:8107/login</t>
+    <t>/login</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json"}</t>
@@ -79,7 +80,7 @@
     <t>get</t>
   </si>
   <si>
-    <t>http://mall.lemonban.com:8107/search/searchProdPage</t>
+    <t>/search/searchProdPage</t>
   </si>
   <si>
     <t>prodName=衣柜</t>
@@ -100,7 +101,7 @@
     <t>添加单个商品到购物车</t>
   </si>
   <si>
-    <t>http://mall.lemonban.com:8107/p/shopCart/changeItem</t>
+    <t>/p/shopCart/changeItem</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json","Authorization":"bearera26892b8-d740-43da-b12b-92a1c0668e5f"}</t>
@@ -110,6 +111,128 @@
   </si>
   <si>
     <t>{"statuscode":200,"bodyString":"Added successfully"}</t>
+  </si>
+  <si>
+    <t>搜索商品</t>
+  </si>
+  <si>
+    <r>
+      <t>prodName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;categoryId=&amp;sort=0&amp;orderBy=0&amp;current=1&amp;isAllProdType=true&amp;st=0&amp;size=12</t>
+    </r>
+  </si>
+  <si>
+    <t>商品详情页</t>
+  </si>
+  <si>
+    <t>/prod/prodInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>prodId=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YY</t>
+    </r>
+  </si>
+  <si>
+    <t>添加购物车</t>
+  </si>
+  <si>
+    <r>
+      <t>{"Content-Type":"application/json","Authorization":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"basketId":0,"count":1,"prodId":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","shopId":1,"skuId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -122,7 +245,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,15 +256,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +395,13 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -613,15 +743,15 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -731,21 +861,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,16 +1236,16 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="3.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="13.4166666666667" customWidth="1"/>
-    <col min="3" max="3" width="5.88888888888889" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="22.0277777777778" customWidth="1"/>
     <col min="5" max="5" width="23.8611111111111" customWidth="1"/>
     <col min="6" max="6" width="32.2592592592593" customWidth="1"/>
     <col min="7" max="7" width="67.9259259259259" customWidth="1"/>
@@ -1139,19 +1278,19 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -1162,19 +1301,19 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1185,19 +1324,19 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -1206,9 +1345,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/login"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8107/login" tooltip="http://mall.lemonban.com:8107/login"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://mall.lemonban.com:8107/login" tooltip="http://mall.lemonban.com:8107/login"/>
+    <hyperlink ref="D2" r:id="rId1" display="/login" tooltip="http://mall.lemonban.com:8107/login"/>
+    <hyperlink ref="D3" r:id="rId1" display="/login" tooltip="http://mall.lemonban.com:8107/login"/>
+    <hyperlink ref="D4" r:id="rId1" display="/login" tooltip="http://mall.lemonban.com:8107/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1222,15 +1361,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="19.7685185185185" customWidth="1"/>
-    <col min="4" max="4" width="32.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="9.80555555555556" customWidth="1"/>
+    <col min="4" max="4" width="56.75" customWidth="1"/>
+    <col min="5" max="5" width="20.4259259259259" customWidth="1"/>
     <col min="6" max="6" width="16.9259259259259" customWidth="1"/>
     <col min="7" max="7" width="42.8148148148148" customWidth="1"/>
   </cols>
@@ -1268,7 +1407,7 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
@@ -1288,7 +1427,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
@@ -1300,8 +1439,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/search/searchProdPage" tooltip="http://mall.lemonban.com:8107/search/searchProdPage"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8107/search/searchProdPage" tooltip="http://mall.lemonban.com:8107/search/searchProdPage"/>
+    <hyperlink ref="D2" r:id="rId1" display="/search/searchProdPage" tooltip="http://mall.lemonban.com:8107/search/searchProdPage"/>
+    <hyperlink ref="D3" r:id="rId1" display="/search/searchProdPage" tooltip="http://mall.lemonban.com:8107/search/searchProdPage"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1331,17 +1470,17 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="16.8518518518519" customWidth="1"/>
+    <col min="4" max="4" width="29.2592592592593" customWidth="1"/>
     <col min="5" max="5" width="19.9166666666667" customWidth="1"/>
     <col min="6" max="6" width="23.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="45.4722222222222" customWidth="1"/>
+    <col min="7" max="7" width="57.1944444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1377,13 +1516,13 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="G2" t="s">
@@ -1392,7 +1531,132 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/p/shopCart/changeItem"/>
+    <hyperlink ref="D2" r:id="rId1" display="/p/shopCart/changeItem" tooltip="http://mall.lemonban.com:8107/p/shopCart/changeItem"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="13.4074074074074" customWidth="1"/>
+    <col min="3" max="3" width="7.09259259259259" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="27.9537037037037" customWidth="1"/>
+    <col min="6" max="6" width="27.4351851851852" customWidth="1"/>
+    <col min="7" max="7" width="45.5462962962963" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="65" customHeight="1" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="/login" tooltip="http://mall.lemonban.com:8107/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="登录接口" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="商品详情页接口" sheetId="3" r:id="rId3"/>
     <sheet name="添加购物车接口" sheetId="4" r:id="rId4"/>
     <sheet name="下单支付业务" sheetId="5" r:id="rId5"/>
+    <sheet name="修改个人头像" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>用例编号</t>
   </si>
@@ -113,11 +114,36 @@
     <t>{"statuscode":200,"bodyString":"Added successfully"}</t>
   </si>
   <si>
+    <t>提取字段</t>
+  </si>
+  <si>
+    <t>{"token":"access_token"}</t>
+  </si>
+  <si>
     <t>搜索商品</t>
   </si>
   <si>
-    <r>
-      <t>prodName=</t>
+    <t>prodName=衣柜&amp;categoryId=&amp;sort=0&amp;orderBy=0&amp;current=1&amp;isAllProdType=true&amp;st=0&amp;size=12</t>
+  </si>
+  <si>
+    <t>{"prodId":"records[0].prodId"}</t>
+  </si>
+  <si>
+    <t>商品详情页</t>
+  </si>
+  <si>
+    <t>/prod/prodInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prodId=</t>
     </r>
     <r>
       <rPr>
@@ -127,8 +153,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>XX</t>
-    </r>
+      <t>#prodId#</t>
+    </r>
+  </si>
+  <si>
+    <t>{"skuId":"skuList[0].skuId"}</t>
+  </si>
+  <si>
+    <t>添加购物车</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -137,18 +171,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&amp;categoryId=&amp;sort=0&amp;orderBy=0&amp;current=1&amp;isAllProdType=true&amp;st=0&amp;size=12</t>
-    </r>
-  </si>
-  <si>
-    <t>商品详情页</t>
-  </si>
-  <si>
-    <t>/prod/prodInfo</t>
-  </si>
-  <si>
-    <r>
-      <t>prodId=</t>
+      <t>{"Content-Type":"application/json","Authorization":"bearer</t>
     </r>
     <r>
       <rPr>
@@ -158,15 +181,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>YY</t>
-    </r>
-  </si>
-  <si>
-    <t>添加购物车</t>
-  </si>
-  <si>
-    <r>
-      <t>{"Content-Type":"application/json","Authorization":"</t>
+      <t>#token#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"basketId":0,"count":1,"prodId":"</t>
     </r>
     <r>
       <rPr>
@@ -176,7 +213,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ZZ</t>
+      <t>#prodId#</t>
     </r>
     <r>
       <rPr>
@@ -186,12 +223,83 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>","shopId":1,"skuId":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#skuId#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>进入到个人中心</t>
+  </si>
+  <si>
+    <t>/p/user/userInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"Authorization":"bearer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#token#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>"}</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>{"basketId":0,"count":1,"prodId":"</t>
+    <t>上传头像</t>
+  </si>
+  <si>
+    <t>/p/file/upload</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"Authorization":"bearer</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +309,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>YY</t>
+      <t>#token#</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +319,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>","shopId":1,"skuId":</t>
+      <t>","Content-Type":"multipart/form-data"}</t>
+    </r>
+  </si>
+  <si>
+    <t>src/test/resources/111.png</t>
+  </si>
+  <si>
+    <t>{"resourcesUrl":"resourcesUrl","filePath":"filePath"}</t>
+  </si>
+  <si>
+    <t>设置用户信息</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>/p/user/setUserInfo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"Authorization":"bearer</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +356,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>OO</t>
+      <t>#token#</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +366,39 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>}</t>
+      <t>","Content-Type":"application/json; charset=UTF-8"}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"avatarUrl":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#resourcesUrl##filePath#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","nickName":"lemon_auto","userMobile":"13323232323","auth":{}}</t>
     </r>
   </si>
 </sst>
@@ -861,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,14 +1041,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1237,7 +1401,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1516,7 +1680,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1541,23 +1705,25 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="4.10185185185185" customWidth="1"/>
     <col min="2" max="2" width="13.4074074074074" customWidth="1"/>
     <col min="3" max="3" width="7.09259259259259" customWidth="1"/>
     <col min="4" max="4" width="23.5" customWidth="1"/>
     <col min="5" max="5" width="27.9537037037037" customWidth="1"/>
     <col min="6" max="6" width="27.4351851851852" customWidth="1"/>
-    <col min="7" max="7" width="45.5462962962963" customWidth="1"/>
+    <col min="7" max="7" width="14.1018518518519" customWidth="1"/>
+    <col min="8" max="8" width="36.8055555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1579,8 +1745,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" ht="65" customHeight="1" spans="1:6">
+    <row r="2" ht="65" customHeight="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1593,19 +1762,22 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" ht="57.6" spans="1:6">
+    <row r="3" ht="57.6" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1614,32 +1786,38 @@
         <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:6">
+    <row r="5" ht="57.6" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1648,10 +1826,149 @@
         <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="/login" tooltip="http://mall.lemonban.com:8107/login"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.35185185185185" customWidth="1"/>
+    <col min="2" max="2" width="13.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="5.47222222222222" customWidth="1"/>
+    <col min="4" max="4" width="19.8240740740741" customWidth="1"/>
+    <col min="5" max="5" width="33.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="28.4537037037037" customWidth="1"/>
+    <col min="7" max="7" width="9.05555555555556" customWidth="1"/>
+    <col min="8" max="8" width="34.3518518518519" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="96" customHeight="1" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="28" customHeight="1" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" ht="57.6" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
